--- a/Datasets/Healthy/GSE34869.xlsx
+++ b/Datasets/Healthy/GSE34869.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aadid\Documents\Extra\R_Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aadid\Documents\Extra\Code\Epigenetic-Clock\Datasets\Healthy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFCC4B4-F8D8-413F-ADD5-1089FAEF2920}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591BCBEB-17CA-4C8B-89B3-5B3265E7C7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,7 +115,7 @@
     <t>age</t>
   </si>
   <si>
-    <t>gender</t>
+    <t>sex</t>
   </si>
 </sst>
 </file>
@@ -473,7 +473,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
